--- a/Data/top_aa_movies.xlsx
+++ b/Data/top_aa_movies.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustybrown/Documents/Flatiron/Course_Material/phase_1/phase_1_project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F6D693-0405-8249-8049-520F5FC478A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AB1654A-1400-8645-AD4E-FA310EE7092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top_aa_movies" sheetId="1" r:id="rId1"/>
     <sheet name="Genre Count" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sci-fi" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">top_aa_movies!$C$2:$C$54</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">top_aa_movies!$H$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Sci-fi'!$B$2:$B$27</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">top_aa_movies!$H$2:$H$54</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">top_aa_movies!$C$2:$C$54</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">top_aa_movies!$E$1</definedName>
@@ -27,6 +29,7 @@
     <definedName name="_xlchart.v1.6" hidden="1">top_aa_movies!$C$2:$C$54</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">top_aa_movies!$G$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">top_aa_movies!$G$2:$G$54</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Sci-fi'!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="85">
   <si>
     <t>Sci-Fi</t>
   </si>
@@ -1031,7 +1034,433 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="93">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2443,6 +2872,48 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{966A9244-66AC-4F5D-8690-C39B38F70F48}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:v>Runtime (min)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="10"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2594,6 +3065,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -4249,6 +4760,514 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -4924,43 +5943,160 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1643062</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92E4A89-4701-8B4D-F453-CECFF3ACAD48}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1643062" y="7866062"/>
+              <a:ext cx="4572000" cy="2438400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:V54" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" totalsRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:V54" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91" totalsRowDxfId="90">
   <autoFilter ref="A1:V54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Movie" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Movie" dataDxfId="89" totalsRowDxfId="88"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Runtime (min)"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Genres"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Release Date" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Production Budget" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Domestic Gross" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Worldwide Gross" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Return on Investment" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sci-Fi" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Crime" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Thriller" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Animation" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Comedy" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Family" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Fantasy" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Musical" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Drama" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Biography" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Music" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Horror" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Mystery" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Romance" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Release Date" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Production Budget" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Domestic Gross" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Worldwide Gross" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Return on Investment" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sci-Fi" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Crime" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Thriller" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Animation" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Comedy" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Family" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Fantasy" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Musical" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Drama" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Biography" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Music" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Horror" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Mystery" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Romance" dataDxfId="51" totalsRowDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7157DEBC-2E9B-4903-B993-210CE744A7A8}" name="Table2" displayName="Table2" ref="A1:B8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7157DEBC-2E9B-4903-B993-210CE744A7A8}" name="Table2" displayName="Table2" ref="A1:B8" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
   <autoFilter ref="A1:B8" xr:uid="{7157DEBC-2E9B-4903-B993-210CE744A7A8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DE5A719B-200A-4762-BB8C-4C360AAD0601}" name="Genre" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{70A7B387-0AC6-4BD3-A4D9-88FEF86BB66B}" name="Count" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DE5A719B-200A-4762-BB8C-4C360AAD0601}" name="Genre" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{70A7B387-0AC6-4BD3-A4D9-88FEF86BB66B}" name="Count" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D397958-A963-42A3-A591-CE67EF13BA31}" name="Table14" displayName="Table14" ref="A1:V27" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" totalsRowDxfId="40">
+  <autoFilter ref="A1:V27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V27">
+    <sortCondition ref="B1:B27"/>
+  </sortState>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{2AACA3B8-BDF8-42D8-ADCC-FA882E8BD433}" name="Movie" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{272FA824-E721-4BF1-8959-18ECB2F36EFE}" name="Runtime (min)"/>
+    <tableColumn id="3" xr3:uid="{2D32D0DD-FAC1-44E5-AD1B-13148911AAF2}" name="Genres"/>
+    <tableColumn id="4" xr3:uid="{6CB8DDDA-921E-4988-BE66-BC41A82D94D1}" name="Release Date" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{EA9FAD4D-5682-43A5-982A-4DF5787F1F84}" name="Production Budget" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{820EA03E-BC2F-4B2C-8B9D-9299729D0587}" name="Domestic Gross" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{79B8637B-9054-46CA-AC5D-F4281CB517DA}" name="Worldwide Gross" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{019F9D37-4C40-420B-BA9E-DC55B3F1753B}" name="Return on Investment" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{B13E4C7A-E999-4905-985A-9F490E8B0F45}" name="Sci-Fi" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{890FC212-C4C4-4A5A-BDA7-41A1BBD49E6A}" name="Crime" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{92A8EDC4-8B06-4FC4-8242-DAA12DCB7B2D}" name="Thriller" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{77BE6EA7-E4CA-4AEF-A775-D6B9F16B697F}" name="Animation" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{DAB44A0C-432E-423A-ADB9-6F37CB2CFAEC}" name="Comedy" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{1735D155-F688-4C39-8BAB-B4B708437686}" name="Family" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{7C7D90AB-A55D-4E00-B0AD-0E596DF54B91}" name="Fantasy" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{056B11B7-6D88-4D72-A639-7BF8D82F5D0C}" name="Musical" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{E21D8A8B-731C-49B1-8B4E-03BB2205E30C}" name="Drama" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{AB219401-4360-4063-85F2-4C84E8BA315F}" name="Biography" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{215DF293-5C98-41A0-B4AA-7CD2C681FD9D}" name="Music" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{115E0CC2-13E7-4D78-8DB9-EE8160360223}" name="Horror" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{D0EEEAEF-A4F5-4A2B-802F-407696A5D92F}" name="Mystery" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{64F4A025-0789-4B3F-8D54-6F570CAFEDAB}" name="Romance" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5227,9 +6363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9090,7 +10226,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9245,7 +10381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC5D260-CE65-4B05-A8C4-8CECF93841B1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T25" sqref="T25:U25"/>
     </sheetView>
   </sheetViews>
@@ -9254,4 +10390,2025 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2446A214-DB90-4BAA-B57D-E360733DEC89}">
+  <dimension ref="A1:V33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="16" width="14.83203125" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="17.83203125" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" customWidth="1"/>
+    <col min="21" max="21" width="15.5" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" customWidth="1"/>
+    <col min="23" max="256" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43532</v>
+      </c>
+      <c r="E2" s="18">
+        <v>175000000</v>
+      </c>
+      <c r="F2" s="18">
+        <v>426525952</v>
+      </c>
+      <c r="G2" s="18">
+        <v>1123061550</v>
+      </c>
+      <c r="H2" s="18">
+        <v>948061550</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41964</v>
+      </c>
+      <c r="E3" s="18">
+        <v>125000000</v>
+      </c>
+      <c r="F3" s="18">
+        <v>337135885</v>
+      </c>
+      <c r="G3" s="18">
+        <v>766575131</v>
+      </c>
+      <c r="H3" s="18">
+        <v>641575131</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42167</v>
+      </c>
+      <c r="E4" s="18">
+        <v>215000000</v>
+      </c>
+      <c r="F4" s="18">
+        <v>652270625</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1648854864</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1433854864</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40305</v>
+      </c>
+      <c r="E5" s="18">
+        <v>170000000</v>
+      </c>
+      <c r="F5" s="18">
+        <v>312433331</v>
+      </c>
+      <c r="G5" s="18">
+        <v>621156389</v>
+      </c>
+      <c r="H5" s="18">
+        <v>451156389</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E6" s="18">
+        <v>170000000</v>
+      </c>
+      <c r="F6" s="18">
+        <v>417719760</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1305772799</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1135772799</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41397</v>
+      </c>
+      <c r="E7" s="18">
+        <v>200000000</v>
+      </c>
+      <c r="F7" s="18">
+        <v>408992272</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1215392272</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1015392272</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41782</v>
+      </c>
+      <c r="E8" s="18">
+        <v>200000000</v>
+      </c>
+      <c r="F8" s="18">
+        <v>233921534</v>
+      </c>
+      <c r="G8" s="18">
+        <v>747862775</v>
+      </c>
+      <c r="H8" s="18">
+        <v>547862775</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42720</v>
+      </c>
+      <c r="E9" s="18">
+        <v>200000000</v>
+      </c>
+      <c r="F9" s="18">
+        <v>532177324</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1049102856</v>
+      </c>
+      <c r="H9" s="18">
+        <v>849102856</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42923</v>
+      </c>
+      <c r="E10" s="18">
+        <v>175000000</v>
+      </c>
+      <c r="F10" s="18">
+        <v>334201140</v>
+      </c>
+      <c r="G10" s="18">
+        <v>880166350</v>
+      </c>
+      <c r="H10" s="18">
+        <v>705166350</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43147</v>
+      </c>
+      <c r="E11" s="18">
+        <v>200000000</v>
+      </c>
+      <c r="F11" s="18">
+        <v>700059566</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1348258224</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1148258224</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41093</v>
+      </c>
+      <c r="E12" s="18">
+        <v>220000000</v>
+      </c>
+      <c r="F12" s="18">
+        <v>262030663</v>
+      </c>
+      <c r="G12" s="18">
+        <v>757890267</v>
+      </c>
+      <c r="H12" s="18">
+        <v>537890267</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41733</v>
+      </c>
+      <c r="E13" s="18">
+        <v>170000000</v>
+      </c>
+      <c r="F13" s="18">
+        <v>259746958</v>
+      </c>
+      <c r="G13" s="18">
+        <v>714401889</v>
+      </c>
+      <c r="H13" s="18">
+        <v>544401889</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>42328</v>
+      </c>
+      <c r="E14" s="18">
+        <v>160000000</v>
+      </c>
+      <c r="F14" s="18">
+        <v>281723902</v>
+      </c>
+      <c r="G14" s="18">
+        <v>648986787</v>
+      </c>
+      <c r="H14" s="18">
+        <v>488986787</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43188</v>
+      </c>
+      <c r="E15" s="18">
+        <v>150000000</v>
+      </c>
+      <c r="F15" s="18">
+        <v>137690172</v>
+      </c>
+      <c r="G15" s="18">
+        <v>579290136</v>
+      </c>
+      <c r="H15" s="18">
+        <v>429290136</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>42125</v>
+      </c>
+      <c r="E16" s="18">
+        <v>330600000</v>
+      </c>
+      <c r="F16" s="18">
+        <v>459005868</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1403013963</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1072413963</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41761</v>
+      </c>
+      <c r="E17" s="18">
+        <v>200000000</v>
+      </c>
+      <c r="F17" s="18">
+        <v>202853933</v>
+      </c>
+      <c r="G17" s="18">
+        <v>708996336</v>
+      </c>
+      <c r="H17" s="18">
+        <v>508996336</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>40991</v>
+      </c>
+      <c r="E18" s="18">
+        <v>80000000</v>
+      </c>
+      <c r="F18" s="18">
+        <v>408010692</v>
+      </c>
+      <c r="G18" s="18">
+        <v>677923379</v>
+      </c>
+      <c r="H18" s="18">
+        <v>597923379</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41033</v>
+      </c>
+      <c r="E19" s="18">
+        <v>225000000</v>
+      </c>
+      <c r="F19" s="18">
+        <v>623279547</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1517935897</v>
+      </c>
+      <c r="H19" s="18">
+        <v>1292935897</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41439</v>
+      </c>
+      <c r="E20" s="18">
+        <v>225000000</v>
+      </c>
+      <c r="F20" s="18">
+        <v>291045518</v>
+      </c>
+      <c r="G20" s="18">
+        <v>667999518</v>
+      </c>
+      <c r="H20" s="18">
+        <v>442999518</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41600</v>
+      </c>
+      <c r="E21" s="18">
+        <v>130000000</v>
+      </c>
+      <c r="F21" s="18">
+        <v>424668047</v>
+      </c>
+      <c r="G21" s="18">
+        <v>864868047</v>
+      </c>
+      <c r="H21" s="18">
+        <v>734868047</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>147</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>42496</v>
+      </c>
+      <c r="E22" s="18">
+        <v>250000000</v>
+      </c>
+      <c r="F22" s="18">
+        <v>408084349</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1140069413</v>
+      </c>
+      <c r="H22" s="18">
+        <v>890069413</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>40375</v>
+      </c>
+      <c r="E23" s="18">
+        <v>160000000</v>
+      </c>
+      <c r="F23" s="18">
+        <v>292576195</v>
+      </c>
+      <c r="G23" s="18">
+        <v>835524642</v>
+      </c>
+      <c r="H23" s="18">
+        <v>675524642</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43217</v>
+      </c>
+      <c r="E24" s="18">
+        <v>300000000</v>
+      </c>
+      <c r="F24" s="18">
+        <v>678815482</v>
+      </c>
+      <c r="G24" s="18">
+        <v>2048134200</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1748134200</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>154</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>40723</v>
+      </c>
+      <c r="E25" s="18">
+        <v>195000000</v>
+      </c>
+      <c r="F25" s="18">
+        <v>352390543</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1123790543</v>
+      </c>
+      <c r="H25" s="18">
+        <v>928790543</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42907</v>
+      </c>
+      <c r="E26" s="18">
+        <v>217000000</v>
+      </c>
+      <c r="F26" s="18">
+        <v>130168683</v>
+      </c>
+      <c r="G26" s="18">
+        <v>602893340</v>
+      </c>
+      <c r="H26" s="18">
+        <v>385893340</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>41817</v>
+      </c>
+      <c r="E27" s="18">
+        <v>210000000</v>
+      </c>
+      <c r="F27" s="18">
+        <v>245439076</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1104039076</v>
+      </c>
+      <c r="H27" s="18">
+        <v>894039076</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="22">
+        <f>MIN(B2:B27)</f>
+        <v>123</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="11">
+        <f>MIN(E2:E27)</f>
+        <v>80000000</v>
+      </c>
+      <c r="F29" s="11">
+        <f>MIN(F2:F27)</f>
+        <v>130168683</v>
+      </c>
+      <c r="G29" s="11">
+        <f>MIN(G2:G27)</f>
+        <v>579290136</v>
+      </c>
+      <c r="H29" s="11">
+        <f>MIN(H2:H27)</f>
+        <v>385893340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="23">
+        <f>MAX(B2:B27)</f>
+        <v>165</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="13">
+        <f>MAX(E2:E27)</f>
+        <v>330600000</v>
+      </c>
+      <c r="F30" s="13">
+        <f>MAX(F2:F27)</f>
+        <v>700059566</v>
+      </c>
+      <c r="G30" s="13">
+        <f>MAX(G2:G27)</f>
+        <v>2048134200</v>
+      </c>
+      <c r="H30" s="13">
+        <f>MAX(H2:H27)</f>
+        <v>1748134200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="24">
+        <f>AVERAGE(B2:B27)</f>
+        <v>138.73076923076923</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="15">
+        <f>AVERAGE(E2:E27)</f>
+        <v>194330769.23076922</v>
+      </c>
+      <c r="F31" s="15">
+        <f>AVERAGE(F2:F27)</f>
+        <v>377421808.34615386</v>
+      </c>
+      <c r="G31" s="15">
+        <f>AVERAGE(G2:G27)</f>
+        <v>1003921563.1923077</v>
+      </c>
+      <c r="H31" s="15">
+        <f>AVERAGE(H2:H27)</f>
+        <v>809590793.96153843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="23">
+        <f>MEDIAN(B2:B27)</f>
+        <v>138.5</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="13">
+        <f>MEDIAN(E2:E27)</f>
+        <v>200000000</v>
+      </c>
+      <c r="F32" s="13">
+        <f>MEDIAN(F2:F27)</f>
+        <v>344763214</v>
+      </c>
+      <c r="G32" s="13">
+        <f>MEDIAN(G2:G27)</f>
+        <v>872517198.5</v>
+      </c>
+      <c r="H32" s="13">
+        <f>MEDIAN(H2:H27)</f>
+        <v>720017198.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="25">
+        <f>_xlfn.STDEV.P(B2:B27)</f>
+        <v>10.386965546031133</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="17">
+        <f>_xlfn.STDEV.P(E2:E27)</f>
+        <v>50224387.037120104</v>
+      </c>
+      <c r="F33" s="17">
+        <f>_xlfn.STDEV.P(F2:F27)</f>
+        <v>154057763.44907734</v>
+      </c>
+      <c r="G33" s="17">
+        <f>_xlfn.STDEV.P(G2:G27)</f>
+        <v>366498722.96531385</v>
+      </c>
+      <c r="H33" s="17">
+        <f>_xlfn.STDEV.P(H2:H27)</f>
+        <v>338864795.48891073</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>